--- a/data/GPS RAD snails.xlsx
+++ b/data/GPS RAD snails.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnphillips/Desktop/SNAILS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Desktop\PhD_Fuster-Calvo\naesiotus_nematodes\naesiotus_nematodes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAD30AB-D409-474F-BF2C-1331B9FA54AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="2" xr2:uid="{69DE3F43-987E-384A-AD9F-A25A5ED8761F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23580" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Good" sheetId="1" r:id="rId1"/>
     <sheet name="LOW" sheetId="2" r:id="rId2"/>
     <sheet name="BAD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Good!$A$1:$J$502</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4122" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4122" uniqueCount="960">
   <si>
     <t>AL05_05_02_01</t>
   </si>
@@ -1881,9 +1883,6 @@
     <t>Need ecological data</t>
   </si>
   <si>
-    <t>sp. nov. Volcán Wolf 1</t>
-  </si>
-  <si>
     <t>*Two Wolf clades. We didn't make a decision on them yet, but Taka thought they were different species</t>
   </si>
   <si>
@@ -1971,12 +1970,6 @@
     <t>pallidus</t>
   </si>
   <si>
-    <t>sp. nov. Volcán Wolf 2</t>
-  </si>
-  <si>
-    <t>sp. nov. Volcán Wolf 3</t>
-  </si>
-  <si>
     <t>hemaerodes</t>
   </si>
   <si>
@@ -2923,12 +2916,24 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>sp. nov. Volcan Wolf 1</t>
+  </si>
+  <si>
+    <t>sp. nov. Volcan Wolf 3</t>
+  </si>
+  <si>
+    <t>sp. nov. Volcan Wolf 2</t>
+  </si>
+  <si>
+    <t>sp. nov. pinzon 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmmm\ yyyy"/>
     <numFmt numFmtId="165" formatCode="\a\a00\-00\-00"/>
@@ -4425,36 +4430,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BB667A-892A-034B-92F6-B65933974B22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U591"/>
   <sheetViews>
-    <sheetView topLeftCell="A478" zoomScale="116" workbookViewId="0">
-      <selection activeCell="B444" sqref="B444:B502"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.33203125" customWidth="1"/>
+    <col min="10" max="10" width="43.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1">
       <c r="A1" s="38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D1" s="39" t="s">
         <v>576</v>
@@ -4486,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>578</v>
@@ -4518,7 +4523,7 @@
         <v>124</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>578</v>
@@ -4553,12 +4558,12 @@
       <c r="T3"/>
       <c r="U3"/>
     </row>
-    <row r="4" spans="1:21" ht="17">
+    <row r="4" spans="1:21">
       <c r="A4" s="11" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C4" s="94" t="s">
         <v>583</v>
@@ -4572,7 +4577,7 @@
         <v>2005</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="2"/>
@@ -4595,7 +4600,7 @@
         <v>126</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>578</v>
@@ -4627,7 +4632,7 @@
         <v>127</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>578</v>
@@ -4737,12 +4742,12 @@
       <c r="T8"/>
       <c r="U8"/>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" ht="17">
+    <row r="9" spans="1:21" s="2" customFormat="1">
       <c r="A9" s="11" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C9" s="94" t="s">
         <v>583</v>
@@ -4756,7 +4761,7 @@
         <v>2015</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I9"/>
       <c r="J9" s="3"/>
@@ -4772,12 +4777,12 @@
       <c r="T9"/>
       <c r="U9"/>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" ht="17">
+    <row r="10" spans="1:21" s="2" customFormat="1">
       <c r="A10" s="11" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>604</v>
@@ -4791,7 +4796,7 @@
         <v>2005</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I10"/>
       <c r="J10" s="3"/>
@@ -4839,12 +4844,12 @@
       <c r="T11"/>
       <c r="U11"/>
     </row>
-    <row r="12" spans="1:21" s="2" customFormat="1" ht="17">
+    <row r="12" spans="1:21" s="2" customFormat="1">
       <c r="A12" s="11" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>604</v>
@@ -4858,7 +4863,7 @@
         <v>2005</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I12"/>
       <c r="J12" s="3"/>
@@ -4906,12 +4911,12 @@
       <c r="T13"/>
       <c r="U13"/>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1" ht="17">
+    <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="11" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>604</v>
@@ -4925,7 +4930,7 @@
         <v>2015</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I14"/>
       <c r="J14" s="3"/>
@@ -4941,12 +4946,12 @@
       <c r="T14"/>
       <c r="U14"/>
     </row>
-    <row r="15" spans="1:21" s="2" customFormat="1" ht="17">
+    <row r="15" spans="1:21" s="2" customFormat="1">
       <c r="A15" s="11" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>604</v>
@@ -4960,7 +4965,7 @@
         <v>2015</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I15"/>
       <c r="J15" s="3"/>
@@ -5165,7 +5170,7 @@
         <v>136</v>
       </c>
       <c r="C22" s="94" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>580</v>
@@ -5197,7 +5202,7 @@
         <v>137</v>
       </c>
       <c r="C23" s="94" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>580</v>
@@ -5485,7 +5490,7 @@
         <v>145</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>580</v>
@@ -5517,7 +5522,7 @@
         <v>146</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>580</v>
@@ -5549,7 +5554,7 @@
         <v>147</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>580</v>
@@ -5581,7 +5586,7 @@
         <v>148</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>589</v>
@@ -5613,7 +5618,7 @@
         <v>149</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>589</v>
@@ -5645,7 +5650,7 @@
         <v>150</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>589</v>
@@ -5677,7 +5682,7 @@
         <v>151</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>589</v>
@@ -5709,7 +5714,7 @@
         <v>152</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>580</v>
@@ -5741,7 +5746,7 @@
         <v>153</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>580</v>
@@ -5773,7 +5778,7 @@
         <v>154</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>580</v>
@@ -5805,7 +5810,7 @@
         <v>155</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>589</v>
@@ -5837,7 +5842,7 @@
         <v>156</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>589</v>
@@ -5869,7 +5874,7 @@
         <v>157</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>580</v>
@@ -6221,7 +6226,7 @@
         <v>68</v>
       </c>
       <c r="C55" s="56" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>578</v>
@@ -6242,7 +6247,7 @@
         <v>567</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="2" customFormat="1">
@@ -6253,7 +6258,7 @@
         <v>171</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>591</v>
@@ -6285,7 +6290,7 @@
         <v>172</v>
       </c>
       <c r="C57" s="45" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D57" s="39" t="s">
         <v>591</v>
@@ -6317,7 +6322,7 @@
         <v>173</v>
       </c>
       <c r="C58" s="45" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D58" s="39" t="s">
         <v>591</v>
@@ -6349,7 +6354,7 @@
         <v>174</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>591</v>
@@ -6381,7 +6386,7 @@
         <v>175</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>589</v>
@@ -6413,7 +6418,7 @@
         <v>176</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>591</v>
@@ -6445,7 +6450,7 @@
         <v>177</v>
       </c>
       <c r="C62" s="45" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D62" s="39" t="s">
         <v>578</v>
@@ -6477,7 +6482,7 @@
         <v>178</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>578</v>
@@ -6509,7 +6514,7 @@
         <v>179</v>
       </c>
       <c r="C64" s="45" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D64" s="39" t="s">
         <v>591</v>
@@ -6541,7 +6546,7 @@
         <v>180</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>591</v>
@@ -6573,7 +6578,7 @@
         <v>181</v>
       </c>
       <c r="C66" s="45" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D66" s="39" t="s">
         <v>589</v>
@@ -6605,7 +6610,7 @@
         <v>182</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>589</v>
@@ -7268,7 +7273,7 @@
         <v>201</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D86" s="13" t="s">
         <v>591</v>
@@ -7311,7 +7316,7 @@
         <v>202</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D87" s="50" t="s">
         <v>580</v>
@@ -7341,7 +7346,7 @@
         <v>203</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D88" s="50" t="s">
         <v>580</v>
@@ -7371,7 +7376,7 @@
         <v>204</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D89" s="50" t="s">
         <v>580</v>
@@ -7401,7 +7406,7 @@
         <v>205</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D90" s="50" t="s">
         <v>580</v>
@@ -7495,7 +7500,7 @@
         <v>208</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D93" s="50" t="s">
         <v>580</v>
@@ -7527,7 +7532,7 @@
         <v>209</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D94" s="50" t="s">
         <v>580</v>
@@ -7559,7 +7564,7 @@
         <v>210</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D95" s="50" t="s">
         <v>580</v>
@@ -7591,7 +7596,7 @@
         <v>211</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D96" s="50" t="s">
         <v>580</v>
@@ -7750,7 +7755,7 @@
         <v>216</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>578</v>
@@ -7793,7 +7798,7 @@
         <v>217</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>578</v>
@@ -7819,16 +7824,16 @@
     </row>
     <row r="102" spans="1:21">
       <c r="A102" s="11" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5" t="s">
@@ -7838,22 +7843,22 @@
         <v>2020</v>
       </c>
       <c r="H102" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J102" s="3"/>
     </row>
     <row r="103" spans="1:21">
       <c r="A103" s="11" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5" t="s">
@@ -7863,22 +7868,22 @@
         <v>2020</v>
       </c>
       <c r="H103" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J103" s="3"/>
     </row>
     <row r="104" spans="1:21">
       <c r="A104" s="11" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5" t="s">
@@ -7888,22 +7893,22 @@
         <v>2020</v>
       </c>
       <c r="H104" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J104" s="3"/>
     </row>
     <row r="105" spans="1:21">
       <c r="A105" s="11" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5" t="s">
@@ -7913,22 +7918,22 @@
         <v>2020</v>
       </c>
       <c r="H105" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J105" s="3"/>
     </row>
     <row r="106" spans="1:21">
       <c r="A106" s="11" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5" t="s">
@@ -7938,7 +7943,7 @@
         <v>2020</v>
       </c>
       <c r="H106" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J106" s="3"/>
       <c r="K106" s="2"/>
@@ -7961,7 +7966,7 @@
         <v>218</v>
       </c>
       <c r="C107" s="28" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D107" s="13" t="s">
         <v>591</v>
@@ -8004,7 +8009,7 @@
         <v>219</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D108" s="13" t="s">
         <v>591</v>
@@ -8131,13 +8136,13 @@
     </row>
     <row r="112" spans="1:21">
       <c r="A112" s="11" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -8148,7 +8153,7 @@
         <v>2018</v>
       </c>
       <c r="H112" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J112" s="3"/>
     </row>
@@ -8160,7 +8165,7 @@
         <v>220</v>
       </c>
       <c r="C113" s="28" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D113" s="13" t="s">
         <v>591</v>
@@ -8192,7 +8197,7 @@
         <v>221</v>
       </c>
       <c r="C114" s="28" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D114" s="13" t="s">
         <v>591</v>
@@ -8224,7 +8229,7 @@
         <v>222</v>
       </c>
       <c r="C115" s="28" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D115" s="13" t="s">
         <v>591</v>
@@ -8256,7 +8261,7 @@
         <v>223</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D116" s="13" t="s">
         <v>591</v>
@@ -8288,7 +8293,7 @@
         <v>224</v>
       </c>
       <c r="C117" s="28" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D117" s="13" t="s">
         <v>591</v>
@@ -8320,7 +8325,7 @@
         <v>225</v>
       </c>
       <c r="C118" s="28" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>591</v>
@@ -8352,7 +8357,7 @@
         <v>226</v>
       </c>
       <c r="C119" s="28" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D119" s="13" t="s">
         <v>591</v>
@@ -8384,7 +8389,7 @@
         <v>227</v>
       </c>
       <c r="C120" s="28" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D120" s="13" t="s">
         <v>591</v>
@@ -8416,7 +8421,7 @@
         <v>228</v>
       </c>
       <c r="C121" s="28" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D121" s="13" t="s">
         <v>591</v>
@@ -8448,7 +8453,7 @@
         <v>229</v>
       </c>
       <c r="C122" s="94" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>591</v>
@@ -8480,7 +8485,7 @@
         <v>230</v>
       </c>
       <c r="C123" s="94" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D123" s="13" t="s">
         <v>591</v>
@@ -8576,10 +8581,10 @@
         <v>233</v>
       </c>
       <c r="C126" s="95" t="s">
-        <v>558</v>
+        <v>959</v>
       </c>
       <c r="D126" s="39" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E126" s="39" t="s">
         <v>590</v>
@@ -8608,10 +8613,10 @@
         <v>1</v>
       </c>
       <c r="C127" s="95" t="s">
-        <v>558</v>
+        <v>959</v>
       </c>
       <c r="D127" s="39" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E127" s="39" t="s">
         <v>590</v>
@@ -8640,10 +8645,10 @@
         <v>234</v>
       </c>
       <c r="C128" s="95" t="s">
-        <v>558</v>
+        <v>959</v>
       </c>
       <c r="D128" s="39" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E128" s="39" t="s">
         <v>590</v>
@@ -8927,11 +8932,11 @@
       <c r="B137" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="C137" s="94" t="s">
-        <v>558</v>
+      <c r="C137" s="95" t="s">
+        <v>959</v>
       </c>
       <c r="D137" s="39" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E137" s="39" t="s">
         <v>590</v>
@@ -8959,11 +8964,11 @@
       <c r="B138" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="C138" s="94" t="s">
-        <v>558</v>
+      <c r="C138" s="95" t="s">
+        <v>959</v>
       </c>
       <c r="D138" s="39" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E138" s="39" t="s">
         <v>590</v>
@@ -8991,11 +8996,11 @@
       <c r="B139" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C139" s="94" t="s">
-        <v>558</v>
+      <c r="C139" s="95" t="s">
+        <v>959</v>
       </c>
       <c r="D139" s="39" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E139" s="39" t="s">
         <v>590</v>
@@ -9024,7 +9029,7 @@
         <v>251</v>
       </c>
       <c r="C140" s="45" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D140" s="39" t="s">
         <v>578</v>
@@ -9056,7 +9061,7 @@
         <v>252</v>
       </c>
       <c r="C141" s="45" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D141" s="39" t="s">
         <v>578</v>
@@ -9088,7 +9093,7 @@
         <v>253</v>
       </c>
       <c r="C142" s="28" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D142" s="13" t="s">
         <v>578</v>
@@ -9120,7 +9125,7 @@
         <v>254</v>
       </c>
       <c r="C143" s="28" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D143" s="13" t="s">
         <v>578</v>
@@ -9216,7 +9221,7 @@
         <v>259</v>
       </c>
       <c r="C146" s="28" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D146" s="13" t="s">
         <v>591</v>
@@ -9248,7 +9253,7 @@
         <v>260</v>
       </c>
       <c r="C147" s="28" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D147" s="22" t="s">
         <v>591</v>
@@ -9274,16 +9279,16 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="11" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="5" t="s">
@@ -9293,22 +9298,22 @@
         <v>2001</v>
       </c>
       <c r="H148" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J148" s="3"/>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="11" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="5" t="s">
@@ -9318,7 +9323,7 @@
         <v>2001</v>
       </c>
       <c r="H149" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J149" s="3"/>
     </row>
@@ -9388,16 +9393,16 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="11" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="5" t="s">
@@ -9407,22 +9412,22 @@
         <v>2002</v>
       </c>
       <c r="H152" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J152" s="3"/>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="11" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="5" t="s">
@@ -9432,22 +9437,22 @@
         <v>2002</v>
       </c>
       <c r="H153" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J153" s="3"/>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="11" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>538</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="5" t="s">
@@ -9457,22 +9462,22 @@
         <v>2003</v>
       </c>
       <c r="H154" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J154" s="3"/>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="11" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>538</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="5" t="s">
@@ -9482,22 +9487,22 @@
         <v>2003</v>
       </c>
       <c r="H155" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J155" s="3"/>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="11" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>538</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="5" t="s">
@@ -9507,22 +9512,22 @@
         <v>2003</v>
       </c>
       <c r="H156" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J156" s="3"/>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="11" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>538</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="5" t="s">
@@ -9532,22 +9537,22 @@
         <v>2003</v>
       </c>
       <c r="H157" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J157" s="3"/>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="11" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>538</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="5" t="s">
@@ -9557,22 +9562,22 @@
         <v>2003</v>
       </c>
       <c r="H158" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J158" s="3"/>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="11" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>538</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E159" s="4"/>
       <c r="F159" s="5" t="s">
@@ -9582,22 +9587,22 @@
         <v>2003</v>
       </c>
       <c r="H159" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J159" s="3"/>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="11" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>538</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="5" t="s">
@@ -9607,7 +9612,7 @@
         <v>2003</v>
       </c>
       <c r="H160" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J160" s="3"/>
     </row>
@@ -9715,7 +9720,7 @@
         <v>268</v>
       </c>
       <c r="C164" s="28" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D164" s="22" t="s">
         <v>591</v>
@@ -9747,7 +9752,7 @@
         <v>63</v>
       </c>
       <c r="C165" s="28" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D165" s="22" t="s">
         <v>591</v>
@@ -9799,7 +9804,7 @@
         <v>270</v>
       </c>
       <c r="C167" s="45" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D167" s="53" t="s">
         <v>591</v>
@@ -9831,7 +9836,7 @@
         <v>271</v>
       </c>
       <c r="C168" s="45" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D168" s="53" t="s">
         <v>591</v>
@@ -9863,7 +9868,7 @@
         <v>272</v>
       </c>
       <c r="C169" s="45" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D169" s="53" t="s">
         <v>591</v>
@@ -9895,7 +9900,7 @@
         <v>273</v>
       </c>
       <c r="C170" s="45" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D170" s="53" t="s">
         <v>591</v>
@@ -9927,7 +9932,7 @@
         <v>274</v>
       </c>
       <c r="C171" s="45" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D171" s="53" t="s">
         <v>591</v>
@@ -9991,7 +9996,7 @@
         <v>276</v>
       </c>
       <c r="C173" s="28" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D173" s="22" t="s">
         <v>591</v>
@@ -10023,7 +10028,7 @@
         <v>277</v>
       </c>
       <c r="C174" s="45" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D174" s="53" t="s">
         <v>591</v>
@@ -10055,7 +10060,7 @@
         <v>278</v>
       </c>
       <c r="C175" s="45" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D175" s="53" t="s">
         <v>591</v>
@@ -10081,10 +10086,10 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176" s="11" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>109</v>
@@ -10098,7 +10103,7 @@
         <v>2003</v>
       </c>
       <c r="H176" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J176" s="3"/>
     </row>
@@ -10131,18 +10136,18 @@
         <v>567</v>
       </c>
       <c r="J177" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="11" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -10153,19 +10158,19 @@
         <v>2003</v>
       </c>
       <c r="H178" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J178" s="3"/>
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="11" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -10176,19 +10181,19 @@
         <v>2003</v>
       </c>
       <c r="H179" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J179" s="3"/>
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="11" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -10199,19 +10204,19 @@
         <v>2003</v>
       </c>
       <c r="H180" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J180" s="3"/>
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="11" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -10222,19 +10227,19 @@
         <v>2003</v>
       </c>
       <c r="H181" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J181" s="3"/>
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="11" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -10245,19 +10250,19 @@
         <v>2003</v>
       </c>
       <c r="H182" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J182" s="3"/>
     </row>
     <row r="183" spans="1:10">
       <c r="A183" s="11" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -10268,19 +10273,19 @@
         <v>2003</v>
       </c>
       <c r="H183" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J183" s="3"/>
     </row>
     <row r="184" spans="1:10">
       <c r="A184" s="11" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -10291,19 +10296,19 @@
         <v>2003</v>
       </c>
       <c r="H184" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J184" s="3"/>
     </row>
     <row r="185" spans="1:10">
       <c r="A185" s="11" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -10314,19 +10319,19 @@
         <v>2003</v>
       </c>
       <c r="H185" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J185" s="3"/>
     </row>
     <row r="186" spans="1:10">
       <c r="A186" s="11" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -10337,19 +10342,19 @@
         <v>2003</v>
       </c>
       <c r="H186" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J186" s="3"/>
     </row>
     <row r="187" spans="1:10">
       <c r="A187" s="11" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -10360,19 +10365,19 @@
         <v>2003</v>
       </c>
       <c r="H187" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J187" s="3"/>
     </row>
     <row r="188" spans="1:10">
       <c r="A188" s="11" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -10383,19 +10388,19 @@
         <v>2003</v>
       </c>
       <c r="H188" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J188" s="3"/>
     </row>
     <row r="189" spans="1:10">
       <c r="A189" s="11" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -10406,19 +10411,19 @@
         <v>2003</v>
       </c>
       <c r="H189" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J189" s="3"/>
     </row>
     <row r="190" spans="1:10">
       <c r="A190" s="11" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -10429,16 +10434,16 @@
         <v>2003</v>
       </c>
       <c r="H190" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J190" s="3"/>
     </row>
     <row r="191" spans="1:10">
       <c r="A191" s="11" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>109</v>
@@ -10452,19 +10457,19 @@
         <v>2003</v>
       </c>
       <c r="H191" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J191" s="3"/>
     </row>
     <row r="192" spans="1:10">
       <c r="A192" s="11" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -10475,19 +10480,19 @@
         <v>2003</v>
       </c>
       <c r="H192" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J192" s="3"/>
     </row>
     <row r="193" spans="1:10">
       <c r="A193" s="11" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -10498,19 +10503,19 @@
         <v>2003</v>
       </c>
       <c r="H193" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J193" s="3"/>
     </row>
     <row r="194" spans="1:10">
       <c r="A194" s="11" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
@@ -10521,19 +10526,19 @@
         <v>2003</v>
       </c>
       <c r="H194" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J194" s="3"/>
     </row>
     <row r="195" spans="1:10">
       <c r="A195" s="11" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -10544,19 +10549,19 @@
         <v>2003</v>
       </c>
       <c r="H195" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J195" s="3"/>
     </row>
     <row r="196" spans="1:10">
       <c r="A196" s="11" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -10567,19 +10572,19 @@
         <v>2003</v>
       </c>
       <c r="H196" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J196" s="3"/>
     </row>
     <row r="197" spans="1:10">
       <c r="A197" s="11" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -10590,19 +10595,19 @@
         <v>2003</v>
       </c>
       <c r="H197" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J197" s="3"/>
     </row>
     <row r="198" spans="1:10">
       <c r="A198" s="11" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -10613,19 +10618,19 @@
         <v>2003</v>
       </c>
       <c r="H198" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J198" s="3"/>
     </row>
     <row r="199" spans="1:10">
       <c r="A199" s="11" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -10636,19 +10641,19 @@
         <v>2003</v>
       </c>
       <c r="H199" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J199" s="3"/>
     </row>
     <row r="200" spans="1:10">
       <c r="A200" s="11" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -10659,19 +10664,19 @@
         <v>2003</v>
       </c>
       <c r="H200" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J200" s="3"/>
     </row>
     <row r="201" spans="1:10">
       <c r="A201" s="11" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -10682,16 +10687,16 @@
         <v>2003</v>
       </c>
       <c r="H201" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J201" s="3"/>
     </row>
     <row r="202" spans="1:10">
       <c r="A202" s="11" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>109</v>
@@ -10705,19 +10710,19 @@
         <v>2003</v>
       </c>
       <c r="H202" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J202" s="3"/>
     </row>
     <row r="203" spans="1:10">
       <c r="A203" s="11" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -10728,19 +10733,19 @@
         <v>2003</v>
       </c>
       <c r="H203" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J203" s="3"/>
     </row>
     <row r="204" spans="1:10">
       <c r="A204" s="11" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -10751,19 +10756,19 @@
         <v>2003</v>
       </c>
       <c r="H204" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J204" s="3"/>
     </row>
     <row r="205" spans="1:10">
       <c r="A205" s="11" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -10774,19 +10779,19 @@
         <v>2003</v>
       </c>
       <c r="H205" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J205" s="3"/>
     </row>
     <row r="206" spans="1:10">
       <c r="A206" s="11" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -10797,19 +10802,19 @@
         <v>2003</v>
       </c>
       <c r="H206" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J206" s="3"/>
     </row>
     <row r="207" spans="1:10">
       <c r="A207" s="11" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -10820,19 +10825,19 @@
         <v>2003</v>
       </c>
       <c r="H207" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J207" s="3"/>
     </row>
     <row r="208" spans="1:10">
       <c r="A208" s="11" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -10843,19 +10848,19 @@
         <v>2003</v>
       </c>
       <c r="H208" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J208" s="3"/>
     </row>
     <row r="209" spans="1:21">
       <c r="A209" s="11" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -10866,19 +10871,19 @@
         <v>2003</v>
       </c>
       <c r="H209" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J209" s="3"/>
     </row>
     <row r="210" spans="1:21">
       <c r="A210" s="11" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -10889,19 +10894,19 @@
         <v>2003</v>
       </c>
       <c r="H210" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J210" s="3"/>
     </row>
     <row r="211" spans="1:21">
       <c r="A211" s="11" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -10912,19 +10917,19 @@
         <v>2003</v>
       </c>
       <c r="H211" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J211" s="3"/>
     </row>
     <row r="212" spans="1:21">
       <c r="A212" s="11" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
@@ -10935,19 +10940,19 @@
         <v>2003</v>
       </c>
       <c r="H212" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J212" s="3"/>
     </row>
     <row r="213" spans="1:21">
       <c r="A213" s="11" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -10958,19 +10963,19 @@
         <v>2003</v>
       </c>
       <c r="H213" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J213" s="3"/>
     </row>
     <row r="214" spans="1:21">
       <c r="A214" s="11" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -10981,19 +10986,19 @@
         <v>2003</v>
       </c>
       <c r="H214" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J214" s="3"/>
     </row>
     <row r="215" spans="1:21">
       <c r="A215" s="11" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -11004,19 +11009,19 @@
         <v>2003</v>
       </c>
       <c r="H215" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J215" s="3"/>
     </row>
     <row r="216" spans="1:21">
       <c r="A216" s="11" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
@@ -11027,19 +11032,19 @@
         <v>2003</v>
       </c>
       <c r="H216" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J216" s="3"/>
     </row>
     <row r="217" spans="1:21">
       <c r="A217" s="11" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
@@ -11050,19 +11055,19 @@
         <v>2003</v>
       </c>
       <c r="H217" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J217" s="3"/>
     </row>
     <row r="218" spans="1:21">
       <c r="A218" s="11" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
@@ -11073,19 +11078,19 @@
         <v>2003</v>
       </c>
       <c r="H218" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J218" s="3"/>
     </row>
     <row r="219" spans="1:21">
       <c r="A219" s="11" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
@@ -11096,19 +11101,19 @@
         <v>2003</v>
       </c>
       <c r="H219" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J219" s="3"/>
     </row>
     <row r="220" spans="1:21">
       <c r="A220" s="11" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -11119,19 +11124,19 @@
         <v>2003</v>
       </c>
       <c r="H220" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J220" s="3"/>
     </row>
     <row r="221" spans="1:21">
       <c r="A221" s="11" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -11142,19 +11147,19 @@
         <v>2003</v>
       </c>
       <c r="H221" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J221" s="3"/>
     </row>
     <row r="222" spans="1:21">
       <c r="A222" s="11" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -11165,19 +11170,19 @@
         <v>2003</v>
       </c>
       <c r="H222" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J222" s="3"/>
     </row>
     <row r="223" spans="1:21" s="24" customFormat="1">
       <c r="A223" s="11" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -11188,7 +11193,7 @@
         <v>2003</v>
       </c>
       <c r="H223" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I223"/>
       <c r="J223" s="3"/>
@@ -11206,13 +11211,13 @@
     </row>
     <row r="224" spans="1:21">
       <c r="A224" s="11" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -11223,19 +11228,19 @@
         <v>2003</v>
       </c>
       <c r="H224" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J224" s="3"/>
     </row>
     <row r="225" spans="1:21">
       <c r="A225" s="11" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -11246,19 +11251,19 @@
         <v>2003</v>
       </c>
       <c r="H225" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J225" s="3"/>
     </row>
     <row r="226" spans="1:21">
       <c r="A226" s="11" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -11269,19 +11274,19 @@
         <v>2003</v>
       </c>
       <c r="H226" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J226" s="3"/>
     </row>
     <row r="227" spans="1:21">
       <c r="A227" s="11" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -11292,19 +11297,19 @@
         <v>2003</v>
       </c>
       <c r="H227" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J227" s="3"/>
     </row>
     <row r="228" spans="1:21">
       <c r="A228" s="11" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
@@ -11315,19 +11320,19 @@
         <v>2003</v>
       </c>
       <c r="H228" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J228" s="3"/>
     </row>
     <row r="229" spans="1:21">
       <c r="A229" s="11" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
@@ -11338,19 +11343,19 @@
         <v>2003</v>
       </c>
       <c r="H229" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J229" s="3"/>
     </row>
     <row r="230" spans="1:21">
       <c r="A230" s="11" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -11361,19 +11366,19 @@
         <v>2003</v>
       </c>
       <c r="H230" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J230" s="3"/>
     </row>
     <row r="231" spans="1:21">
       <c r="A231" s="11" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -11384,19 +11389,19 @@
         <v>2003</v>
       </c>
       <c r="H231" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J231" s="3"/>
     </row>
-    <row r="232" spans="1:21" ht="17" customHeight="1">
+    <row r="232" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A232" s="11" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
@@ -11407,19 +11412,19 @@
         <v>2003</v>
       </c>
       <c r="H232" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J232" s="3"/>
     </row>
     <row r="233" spans="1:21">
       <c r="A233" s="11" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
@@ -11430,19 +11435,19 @@
         <v>2003</v>
       </c>
       <c r="H233" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J233" s="3"/>
     </row>
     <row r="234" spans="1:21">
       <c r="A234" s="11" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
@@ -11453,19 +11458,19 @@
         <v>2003</v>
       </c>
       <c r="H234" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J234" s="3"/>
     </row>
     <row r="235" spans="1:21">
       <c r="A235" s="11" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
@@ -11476,19 +11481,19 @@
         <v>2003</v>
       </c>
       <c r="H235" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J235" s="3"/>
     </row>
     <row r="236" spans="1:21">
       <c r="A236" s="11" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -11499,19 +11504,19 @@
         <v>2003</v>
       </c>
       <c r="H236" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J236" s="3"/>
     </row>
     <row r="237" spans="1:21">
       <c r="A237" s="11" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -11522,19 +11527,19 @@
         <v>2003</v>
       </c>
       <c r="H237" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J237" s="3"/>
     </row>
     <row r="238" spans="1:21">
       <c r="A238" s="11" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -11545,19 +11550,19 @@
         <v>2003</v>
       </c>
       <c r="H238" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J238" s="3"/>
     </row>
     <row r="239" spans="1:21" s="61" customFormat="1">
       <c r="A239" s="11" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -11568,7 +11573,7 @@
         <v>2003</v>
       </c>
       <c r="H239" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I239"/>
       <c r="J239" s="3"/>
@@ -11586,13 +11591,13 @@
     </row>
     <row r="240" spans="1:21" s="61" customFormat="1">
       <c r="A240" s="11" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -11603,7 +11608,7 @@
         <v>2003</v>
       </c>
       <c r="H240" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I240"/>
       <c r="J240" s="3"/>
@@ -11621,13 +11626,13 @@
     </row>
     <row r="241" spans="1:21" s="61" customFormat="1">
       <c r="A241" s="11" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -11638,7 +11643,7 @@
         <v>2003</v>
       </c>
       <c r="H241" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I241"/>
       <c r="J241" s="3"/>
@@ -11656,13 +11661,13 @@
     </row>
     <row r="242" spans="1:21" s="61" customFormat="1">
       <c r="A242" s="11" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
@@ -11673,7 +11678,7 @@
         <v>2003</v>
       </c>
       <c r="H242" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I242"/>
       <c r="J242" s="3"/>
@@ -11691,13 +11696,13 @@
     </row>
     <row r="243" spans="1:21" s="61" customFormat="1">
       <c r="A243" s="11" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
@@ -11708,7 +11713,7 @@
         <v>2003</v>
       </c>
       <c r="H243" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I243"/>
       <c r="J243" s="3"/>
@@ -11726,13 +11731,13 @@
     </row>
     <row r="244" spans="1:21" s="61" customFormat="1">
       <c r="A244" s="11" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
@@ -11743,7 +11748,7 @@
         <v>2003</v>
       </c>
       <c r="H244" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I244"/>
       <c r="J244" s="3"/>
@@ -11761,13 +11766,13 @@
     </row>
     <row r="245" spans="1:21" s="61" customFormat="1">
       <c r="A245" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
@@ -11778,7 +11783,7 @@
         <v>2003</v>
       </c>
       <c r="H245" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I245"/>
       <c r="J245" s="3"/>
@@ -11796,13 +11801,13 @@
     </row>
     <row r="246" spans="1:21" s="61" customFormat="1">
       <c r="A246" s="11" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
@@ -11813,7 +11818,7 @@
         <v>2003</v>
       </c>
       <c r="H246" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I246"/>
       <c r="J246" s="3"/>
@@ -11831,10 +11836,10 @@
     </row>
     <row r="247" spans="1:21" s="61" customFormat="1">
       <c r="A247" s="11" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>109</v>
@@ -11848,7 +11853,7 @@
         <v>2003</v>
       </c>
       <c r="H247" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I247"/>
       <c r="J247" s="3"/>
@@ -11866,10 +11871,10 @@
     </row>
     <row r="248" spans="1:21" s="61" customFormat="1">
       <c r="A248" s="11" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>109</v>
@@ -11883,7 +11888,7 @@
         <v>2003</v>
       </c>
       <c r="H248" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I248"/>
       <c r="J248" s="3"/>
@@ -11901,13 +11906,13 @@
     </row>
     <row r="249" spans="1:21" s="61" customFormat="1">
       <c r="A249" s="11" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
@@ -11918,7 +11923,7 @@
         <v>2003</v>
       </c>
       <c r="H249" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I249"/>
       <c r="J249" s="3"/>
@@ -11936,13 +11941,13 @@
     </row>
     <row r="250" spans="1:21" s="61" customFormat="1">
       <c r="A250" s="11" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
@@ -11953,7 +11958,7 @@
         <v>2003</v>
       </c>
       <c r="H250" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I250"/>
       <c r="J250" s="3"/>
@@ -11971,13 +11976,13 @@
     </row>
     <row r="251" spans="1:21">
       <c r="A251" s="11" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
@@ -11988,19 +11993,19 @@
         <v>2003</v>
       </c>
       <c r="H251" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J251" s="3"/>
     </row>
     <row r="252" spans="1:21" s="24" customFormat="1">
       <c r="A252" s="11" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C252" s="98" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -12011,7 +12016,7 @@
         <v>2003</v>
       </c>
       <c r="H252" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I252"/>
       <c r="J252" s="3"/>
@@ -12029,13 +12034,13 @@
     </row>
     <row r="253" spans="1:21">
       <c r="A253" s="11" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C253" s="98" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
@@ -12046,19 +12051,19 @@
         <v>2003</v>
       </c>
       <c r="H253" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J253" s="3"/>
     </row>
     <row r="254" spans="1:21">
       <c r="A254" s="11" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C254" s="96" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
@@ -12069,19 +12074,19 @@
         <v>2003</v>
       </c>
       <c r="H254" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J254" s="3"/>
     </row>
     <row r="255" spans="1:21">
       <c r="A255" s="11" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C255" s="96" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
@@ -12092,19 +12097,19 @@
         <v>2003</v>
       </c>
       <c r="H255" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J255" s="3"/>
     </row>
     <row r="256" spans="1:21">
       <c r="A256" s="11" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C256" s="96" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
@@ -12115,16 +12120,16 @@
         <v>2003</v>
       </c>
       <c r="H256" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J256" s="3"/>
     </row>
     <row r="257" spans="1:10">
       <c r="A257" s="11" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>109</v>
@@ -12138,16 +12143,16 @@
         <v>2003</v>
       </c>
       <c r="H257" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J257" s="3"/>
     </row>
     <row r="258" spans="1:10">
       <c r="A258" s="11" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>109</v>
@@ -12161,13 +12166,13 @@
         <v>2003</v>
       </c>
       <c r="H258" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J258" s="3"/>
     </row>
     <row r="259" spans="1:10">
       <c r="A259" s="11" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B259" s="5" t="s">
         <v>69</v>
@@ -12184,7 +12189,7 @@
         <v>2014</v>
       </c>
       <c r="H259" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J259" s="3"/>
     </row>
@@ -12217,7 +12222,7 @@
         <v>567</v>
       </c>
       <c r="J260" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="261" spans="1:10">
@@ -12228,7 +12233,7 @@
         <v>283</v>
       </c>
       <c r="C261" s="28" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D261" s="13" t="s">
         <v>578</v>
@@ -12260,7 +12265,7 @@
         <v>284</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D262" s="13" t="s">
         <v>578</v>
@@ -12292,7 +12297,7 @@
         <v>285</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D263" s="13" t="s">
         <v>580</v>
@@ -12324,7 +12329,7 @@
         <v>286</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D264" s="13" t="s">
         <v>580</v>
@@ -12359,7 +12364,7 @@
         <v>106</v>
       </c>
       <c r="D265" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E265" s="13" t="s">
         <v>592</v>
@@ -12391,7 +12396,7 @@
         <v>106</v>
       </c>
       <c r="D266" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E266" s="13" t="s">
         <v>592</v>
@@ -12420,7 +12425,7 @@
         <v>289</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D267" s="22" t="s">
         <v>589</v>
@@ -12452,7 +12457,7 @@
         <v>514</v>
       </c>
       <c r="C268" s="28" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D268" s="22" t="s">
         <v>589</v>
@@ -12473,7 +12478,7 @@
         <v>567</v>
       </c>
       <c r="J268" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="269" spans="1:10">
@@ -12484,7 +12489,7 @@
         <v>290</v>
       </c>
       <c r="C269" s="45" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D269" s="22" t="s">
         <v>589</v>
@@ -12505,7 +12510,7 @@
         <v>572</v>
       </c>
       <c r="J269" s="39" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -12519,7 +12524,7 @@
         <v>106</v>
       </c>
       <c r="D270" s="39" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E270" s="39" t="s">
         <v>592</v>
@@ -12551,7 +12556,7 @@
         <v>106</v>
       </c>
       <c r="D271" s="39" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E271" s="39" t="s">
         <v>592</v>
@@ -12581,7 +12586,7 @@
         <v>106</v>
       </c>
       <c r="D272" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E272" s="13" t="s">
         <v>592</v>
@@ -12613,7 +12618,7 @@
         <v>106</v>
       </c>
       <c r="D273" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E273" s="13" t="s">
         <v>592</v>
@@ -12640,7 +12645,7 @@
         <v>515</v>
       </c>
       <c r="C274" s="28" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D274" s="13" t="s">
         <v>580</v>
@@ -12675,7 +12680,7 @@
         <v>106</v>
       </c>
       <c r="D275" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E275" s="13" t="s">
         <v>592</v>
@@ -12716,7 +12721,7 @@
         <v>106</v>
       </c>
       <c r="D276" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E276" s="13" t="s">
         <v>592</v>
@@ -12759,7 +12764,7 @@
         <v>106</v>
       </c>
       <c r="D277" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E277" s="13" t="s">
         <v>592</v>
@@ -12789,7 +12794,7 @@
         <v>106</v>
       </c>
       <c r="D278" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E278" s="13" t="s">
         <v>592</v>
@@ -12819,7 +12824,7 @@
         <v>106</v>
       </c>
       <c r="D279" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E279" s="13" t="s">
         <v>592</v>
@@ -12933,7 +12938,7 @@
         <v>572</v>
       </c>
       <c r="J282" s="13" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="283" spans="1:21">
@@ -12970,13 +12975,13 @@
     </row>
     <row r="284" spans="1:21">
       <c r="A284" s="11" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
@@ -12987,19 +12992,19 @@
         <v>2015</v>
       </c>
       <c r="H284" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J284" s="3"/>
     </row>
     <row r="285" spans="1:21">
       <c r="A285" s="11" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
@@ -13010,7 +13015,7 @@
         <v>2015</v>
       </c>
       <c r="H285" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J285" s="3"/>
     </row>
@@ -13043,7 +13048,7 @@
         <v>567</v>
       </c>
       <c r="J286" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="287" spans="1:21">
@@ -13054,7 +13059,7 @@
         <v>313</v>
       </c>
       <c r="C287" s="45" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D287" s="39" t="s">
         <v>591</v>
@@ -13075,7 +13080,7 @@
         <v>569</v>
       </c>
       <c r="J287" s="39" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="288" spans="1:21">
@@ -13086,7 +13091,7 @@
         <v>314</v>
       </c>
       <c r="C288" s="45" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D288" s="39" t="s">
         <v>591</v>
@@ -13107,18 +13112,18 @@
         <v>569</v>
       </c>
       <c r="J288" s="39" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="289" spans="1:10">
       <c r="A289" s="11" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D289" s="10"/>
       <c r="E289" s="10"/>
@@ -13129,7 +13134,7 @@
         <v>2016</v>
       </c>
       <c r="H289" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J289" s="3"/>
     </row>
@@ -13144,7 +13149,7 @@
         <v>106</v>
       </c>
       <c r="D290" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E290" s="13" t="s">
         <v>592</v>
@@ -13194,7 +13199,7 @@
         <v>567</v>
       </c>
       <c r="J291" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="292" spans="1:10">
@@ -13226,7 +13231,7 @@
         <v>567</v>
       </c>
       <c r="J292" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="293" spans="1:10">
@@ -13237,7 +13242,7 @@
         <v>318</v>
       </c>
       <c r="C293" s="28" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D293" s="13" t="s">
         <v>580</v>
@@ -13258,7 +13263,7 @@
         <v>567</v>
       </c>
       <c r="J293" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="294" spans="1:10">
@@ -13269,7 +13274,7 @@
         <v>319</v>
       </c>
       <c r="C294" s="28" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D294" s="13" t="s">
         <v>580</v>
@@ -13290,7 +13295,7 @@
         <v>567</v>
       </c>
       <c r="J294" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="295" spans="1:10">
@@ -13301,7 +13306,7 @@
         <v>320</v>
       </c>
       <c r="C295" s="28" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D295" s="13" t="s">
         <v>580</v>
@@ -13322,7 +13327,7 @@
         <v>567</v>
       </c>
       <c r="J295" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="296" spans="1:10">
@@ -13333,7 +13338,7 @@
         <v>321</v>
       </c>
       <c r="C296" s="28" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D296" s="13" t="s">
         <v>580</v>
@@ -13365,7 +13370,7 @@
         <v>323</v>
       </c>
       <c r="C297" s="28" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D297" s="13" t="s">
         <v>589</v>
@@ -13386,7 +13391,7 @@
         <v>567</v>
       </c>
       <c r="J297" s="13" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="298" spans="1:10">
@@ -13397,7 +13402,7 @@
         <v>324</v>
       </c>
       <c r="C298" s="45" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D298" s="13" t="s">
         <v>580</v>
@@ -13418,7 +13423,7 @@
         <v>567</v>
       </c>
       <c r="J298" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="299" spans="1:10">
@@ -13429,7 +13434,7 @@
         <v>325</v>
       </c>
       <c r="C299" s="45" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D299" s="13" t="s">
         <v>580</v>
@@ -13450,7 +13455,7 @@
         <v>567</v>
       </c>
       <c r="J299" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="300" spans="1:10">
@@ -13461,7 +13466,7 @@
         <v>326</v>
       </c>
       <c r="C300" s="28" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D300" s="13" t="s">
         <v>580</v>
@@ -13482,7 +13487,7 @@
         <v>567</v>
       </c>
       <c r="J300" s="13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="301" spans="1:10">
@@ -13493,7 +13498,7 @@
         <v>327</v>
       </c>
       <c r="C301" s="28" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D301" s="13" t="s">
         <v>580</v>
@@ -13514,7 +13519,7 @@
         <v>567</v>
       </c>
       <c r="J301" s="13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="302" spans="1:10">
@@ -13525,7 +13530,7 @@
         <v>328</v>
       </c>
       <c r="C302" s="28" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D302" s="13" t="s">
         <v>580</v>
@@ -13546,7 +13551,7 @@
         <v>567</v>
       </c>
       <c r="J302" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="303" spans="1:10">
@@ -13557,7 +13562,7 @@
         <v>329</v>
       </c>
       <c r="C303" s="28" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D303" s="13" t="s">
         <v>580</v>
@@ -13578,7 +13583,7 @@
         <v>567</v>
       </c>
       <c r="J303" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="304" spans="1:10">
@@ -13589,7 +13594,7 @@
         <v>330</v>
       </c>
       <c r="C304" s="28" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D304" s="13" t="s">
         <v>580</v>
@@ -13610,7 +13615,7 @@
         <v>567</v>
       </c>
       <c r="J304" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="305" spans="1:10">
@@ -13642,7 +13647,7 @@
         <v>567</v>
       </c>
       <c r="J305" s="13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="306" spans="1:10">
@@ -13656,7 +13661,7 @@
         <v>106</v>
       </c>
       <c r="D306" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E306" s="13" t="s">
         <v>592</v>
@@ -13674,7 +13679,7 @@
         <v>567</v>
       </c>
       <c r="J306" s="13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="307" spans="1:10">
@@ -13688,7 +13693,7 @@
         <v>106</v>
       </c>
       <c r="D307" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E307" s="13" t="s">
         <v>592</v>
@@ -13706,18 +13711,18 @@
         <v>567</v>
       </c>
       <c r="J307" s="13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="308" spans="1:10">
       <c r="A308" s="11" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
@@ -13728,19 +13733,19 @@
         <v>2020</v>
       </c>
       <c r="H308" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J308" s="3"/>
     </row>
     <row r="309" spans="1:10">
       <c r="A309" s="11" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
@@ -13751,19 +13756,19 @@
         <v>2021</v>
       </c>
       <c r="H309" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J309" s="3"/>
     </row>
     <row r="310" spans="1:10">
       <c r="A310" s="11" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
@@ -13774,19 +13779,19 @@
         <v>2021</v>
       </c>
       <c r="H310" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J310" s="3"/>
     </row>
     <row r="311" spans="1:10">
       <c r="A311" s="11" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
@@ -13797,19 +13802,19 @@
         <v>2021</v>
       </c>
       <c r="H311" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J311" s="3"/>
     </row>
     <row r="312" spans="1:10">
       <c r="A312" s="11" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
@@ -13820,19 +13825,19 @@
         <v>2021</v>
       </c>
       <c r="H312" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J312" s="3"/>
     </row>
     <row r="313" spans="1:10">
       <c r="A313" s="11" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
@@ -13843,19 +13848,19 @@
         <v>2021</v>
       </c>
       <c r="H313" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J313" s="3"/>
     </row>
     <row r="314" spans="1:10">
       <c r="A314" s="11" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
@@ -13866,19 +13871,19 @@
         <v>2021</v>
       </c>
       <c r="H314" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J314" s="3"/>
     </row>
     <row r="315" spans="1:10">
       <c r="A315" s="11" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
@@ -13889,19 +13894,19 @@
         <v>2021</v>
       </c>
       <c r="H315" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J315" s="3"/>
     </row>
     <row r="316" spans="1:10">
       <c r="A316" s="78" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B316" s="81" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C316" s="81" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D316" s="81" t="s">
         <v>60</v>
@@ -13910,18 +13915,18 @@
         <v>2021</v>
       </c>
       <c r="F316" s="80" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="317" spans="1:10">
       <c r="A317" s="11" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
@@ -13932,19 +13937,19 @@
         <v>2021</v>
       </c>
       <c r="H317" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J317" s="3"/>
     </row>
     <row r="318" spans="1:10">
       <c r="A318" s="11" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
@@ -13955,7 +13960,7 @@
         <v>2021</v>
       </c>
       <c r="H318" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J318" s="3"/>
     </row>
@@ -14095,10 +14100,10 @@
         <v>336</v>
       </c>
       <c r="C323" s="28" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D323" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E323" s="13" t="s">
         <v>592</v>
@@ -14116,7 +14121,7 @@
         <v>572</v>
       </c>
       <c r="J323" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="324" spans="1:10">
@@ -14127,10 +14132,10 @@
         <v>338</v>
       </c>
       <c r="C324" s="28" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D324" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E324" s="13" t="s">
         <v>592</v>
@@ -14148,15 +14153,15 @@
         <v>572</v>
       </c>
       <c r="J324" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="325" spans="1:10">
       <c r="A325" s="11" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C325" s="10" t="s">
         <v>546</v>
@@ -14170,19 +14175,19 @@
         <v>2001</v>
       </c>
       <c r="H325" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J325" s="3"/>
     </row>
     <row r="326" spans="1:10">
       <c r="A326" s="11" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B326" s="5" t="s">
         <v>339</v>
       </c>
       <c r="C326" s="10" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D326" s="10"/>
       <c r="E326" s="10"/>
@@ -14193,19 +14198,19 @@
         <v>2005</v>
       </c>
       <c r="H326" s="18" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J326" s="3"/>
     </row>
     <row r="327" spans="1:10">
       <c r="A327" s="11" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C327" s="10" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D327" s="10"/>
       <c r="E327" s="10"/>
@@ -14216,7 +14221,7 @@
         <v>2005</v>
       </c>
       <c r="H327" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J327" s="3"/>
     </row>
@@ -14228,7 +14233,7 @@
         <v>343</v>
       </c>
       <c r="C328" s="28" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D328" s="13" t="s">
         <v>591</v>
@@ -14260,7 +14265,7 @@
         <v>344</v>
       </c>
       <c r="C329" s="28" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D329" s="13" t="s">
         <v>591</v>
@@ -14292,7 +14297,7 @@
         <v>345</v>
       </c>
       <c r="C330" s="28" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D330" s="13" t="s">
         <v>591</v>
@@ -14324,7 +14329,7 @@
         <v>346</v>
       </c>
       <c r="C331" s="45" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D331" s="39" t="s">
         <v>591</v>
@@ -14356,7 +14361,7 @@
         <v>347</v>
       </c>
       <c r="C332" s="45" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D332" s="39" t="s">
         <v>591</v>
@@ -14633,7 +14638,7 @@
         <v>567</v>
       </c>
       <c r="J340" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="341" spans="1:21">
@@ -14713,10 +14718,10 @@
     </row>
     <row r="343" spans="1:21">
       <c r="A343" s="11" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C343" s="10" t="s">
         <v>113</v>
@@ -14730,7 +14735,7 @@
         <v>2017</v>
       </c>
       <c r="H343" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J343" s="3"/>
     </row>
@@ -14742,7 +14747,7 @@
         <v>359</v>
       </c>
       <c r="C344" s="45" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D344" s="39" t="s">
         <v>591</v>
@@ -14774,7 +14779,7 @@
         <v>360</v>
       </c>
       <c r="C345" s="28" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D345" s="13" t="s">
         <v>591</v>
@@ -14800,13 +14805,13 @@
     </row>
     <row r="346" spans="1:21">
       <c r="A346" s="11" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C346" s="10" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D346" s="10"/>
       <c r="E346" s="10"/>
@@ -14817,7 +14822,7 @@
         <v>2017</v>
       </c>
       <c r="H346" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J346" s="3"/>
     </row>
@@ -14829,7 +14834,7 @@
         <v>362</v>
       </c>
       <c r="C347" s="45" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D347" s="39" t="s">
         <v>591</v>
@@ -14861,7 +14866,7 @@
         <v>363</v>
       </c>
       <c r="C348" s="28" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D348" s="13" t="s">
         <v>591</v>
@@ -14957,7 +14962,7 @@
         <v>366</v>
       </c>
       <c r="C351" s="28" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D351" t="s">
         <v>591</v>
@@ -14989,7 +14994,7 @@
         <v>367</v>
       </c>
       <c r="C352" s="45" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>591</v>
@@ -15145,7 +15150,7 @@
         <v>373</v>
       </c>
       <c r="C357" s="28" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D357" s="13" t="s">
         <v>591</v>
@@ -15300,7 +15305,7 @@
         <v>377</v>
       </c>
       <c r="C361" s="64" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D361" s="63" t="s">
         <v>591</v>
@@ -15341,7 +15346,7 @@
         <v>378</v>
       </c>
       <c r="C362" s="64" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D362" s="63" t="s">
         <v>591</v>
@@ -15464,7 +15469,7 @@
         <v>380</v>
       </c>
       <c r="C365" s="59" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D365" s="58" t="s">
         <v>591</v>
@@ -15505,7 +15510,7 @@
         <v>381</v>
       </c>
       <c r="C366" s="59" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D366" s="58" t="s">
         <v>591</v>
@@ -15546,7 +15551,7 @@
         <v>382</v>
       </c>
       <c r="C367" s="59" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D367" s="58" t="s">
         <v>591</v>
@@ -15587,7 +15592,7 @@
         <v>383</v>
       </c>
       <c r="C368" s="59" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D368" s="58" t="s">
         <v>591</v>
@@ -15628,7 +15633,7 @@
         <v>384</v>
       </c>
       <c r="C369" s="59" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D369" s="58" t="s">
         <v>591</v>
@@ -15669,7 +15674,7 @@
         <v>385</v>
       </c>
       <c r="C370" s="59" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D370" s="58" t="s">
         <v>591</v>
@@ -15699,7 +15704,7 @@
         <v>386</v>
       </c>
       <c r="C371" s="59" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D371" s="58" t="s">
         <v>591</v>
@@ -15729,7 +15734,7 @@
         <v>387</v>
       </c>
       <c r="C372" s="99" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D372" s="58" t="s">
         <v>591</v>
@@ -15753,10 +15758,10 @@
     </row>
     <row r="373" spans="1:21">
       <c r="A373" s="11" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C373" s="71" t="s">
         <v>113</v>
@@ -15770,16 +15775,16 @@
         <v>2021</v>
       </c>
       <c r="H373" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J373" s="3"/>
     </row>
     <row r="374" spans="1:21">
       <c r="A374" s="11" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C374" s="71" t="s">
         <v>113</v>
@@ -15793,19 +15798,19 @@
         <v>2021</v>
       </c>
       <c r="H374" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J374" s="3"/>
     </row>
     <row r="375" spans="1:21">
       <c r="A375" s="11" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C375" s="97" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D375" s="11"/>
       <c r="E375" s="11"/>
@@ -15816,16 +15821,16 @@
         <v>2021</v>
       </c>
       <c r="H375" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J375" s="3"/>
     </row>
     <row r="376" spans="1:21">
       <c r="A376" s="11" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C376" s="71" t="s">
         <v>546</v>
@@ -15839,16 +15844,16 @@
         <v>2021</v>
       </c>
       <c r="H376" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J376" s="3"/>
     </row>
     <row r="377" spans="1:21">
       <c r="A377" s="11" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C377" s="71" t="s">
         <v>546</v>
@@ -15862,16 +15867,16 @@
         <v>2021</v>
       </c>
       <c r="H377" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J377" s="3"/>
     </row>
     <row r="378" spans="1:21">
       <c r="A378" s="11" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C378" s="10" t="s">
         <v>546</v>
@@ -15885,7 +15890,7 @@
         <v>2021</v>
       </c>
       <c r="H378" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J378" s="3"/>
       <c r="K378" s="24"/>
@@ -15902,13 +15907,13 @@
     </row>
     <row r="379" spans="1:21">
       <c r="A379" s="11" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C379" s="68" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D379" s="5"/>
       <c r="E379" s="5"/>
@@ -15919,7 +15924,7 @@
         <v>2021</v>
       </c>
       <c r="H379" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J379" s="3"/>
     </row>
@@ -15931,7 +15936,7 @@
         <v>388</v>
       </c>
       <c r="C380" s="45" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D380" s="53" t="s">
         <v>589</v>
@@ -15952,7 +15957,7 @@
         <v>569</v>
       </c>
       <c r="J380" s="39" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="381" spans="1:21">
@@ -15963,7 +15968,7 @@
         <v>389</v>
       </c>
       <c r="C381" s="77" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D381" s="53" t="s">
         <v>589</v>
@@ -15984,7 +15989,7 @@
         <v>569</v>
       </c>
       <c r="J381" s="39" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="382" spans="1:21">
@@ -15995,7 +16000,7 @@
         <v>390</v>
       </c>
       <c r="C382" s="76" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D382" s="22" t="s">
         <v>589</v>
@@ -16016,7 +16021,7 @@
         <v>567</v>
       </c>
       <c r="J382" s="13" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="383" spans="1:21">
@@ -16027,7 +16032,7 @@
         <v>391</v>
       </c>
       <c r="C383" s="77" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D383" s="53" t="s">
         <v>589</v>
@@ -16059,7 +16064,7 @@
         <v>392</v>
       </c>
       <c r="C384" s="77" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D384" s="53" t="s">
         <v>589</v>
@@ -16219,7 +16224,7 @@
         <v>397</v>
       </c>
       <c r="C389" s="45" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D389" s="53" t="s">
         <v>589</v>
@@ -16311,7 +16316,7 @@
         <v>401</v>
       </c>
       <c r="C392" s="28" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D392" s="22" t="s">
         <v>589</v>
@@ -16341,7 +16346,7 @@
         <v>402</v>
       </c>
       <c r="C393" s="28" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D393" s="22" t="s">
         <v>589</v>
@@ -16371,7 +16376,7 @@
         <v>403</v>
       </c>
       <c r="C394" s="28" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D394" s="22" t="s">
         <v>589</v>
@@ -16605,13 +16610,13 @@
     </row>
     <row r="402" spans="1:21">
       <c r="A402" s="11" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C402" s="72" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
@@ -16622,19 +16627,19 @@
         <v>2019</v>
       </c>
       <c r="H402" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J402" s="3"/>
     </row>
     <row r="403" spans="1:21">
       <c r="A403" s="11" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C403" s="72" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
@@ -16645,19 +16650,19 @@
         <v>2019</v>
       </c>
       <c r="H403" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J403" s="3"/>
     </row>
     <row r="404" spans="1:21">
       <c r="A404" s="11" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C404" s="72" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
@@ -16668,7 +16673,7 @@
         <v>2019</v>
       </c>
       <c r="H404" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J404" s="3"/>
       <c r="K404" s="24"/>
@@ -16762,7 +16767,7 @@
         <v>413</v>
       </c>
       <c r="C407" s="76" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D407" s="22" t="s">
         <v>589</v>
@@ -16792,7 +16797,7 @@
         <v>414</v>
       </c>
       <c r="C408" s="76" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D408" s="22" t="s">
         <v>589</v>
@@ -16822,7 +16827,7 @@
         <v>415</v>
       </c>
       <c r="C409" s="76" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D409" s="22" t="s">
         <v>589</v>
@@ -16852,7 +16857,7 @@
         <v>416</v>
       </c>
       <c r="C410" s="76" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D410" s="22" t="s">
         <v>589</v>
@@ -16882,7 +16887,7 @@
         <v>417</v>
       </c>
       <c r="C411" s="76" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D411" s="22" t="s">
         <v>589</v>
@@ -16912,7 +16917,7 @@
         <v>418</v>
       </c>
       <c r="C412" s="76" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D412" s="22" t="s">
         <v>589</v>
@@ -16942,7 +16947,7 @@
         <v>419</v>
       </c>
       <c r="C413" s="28" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D413" s="22" t="s">
         <v>589</v>
@@ -16972,7 +16977,7 @@
         <v>421</v>
       </c>
       <c r="C414" s="76" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D414" s="22" t="s">
         <v>589</v>
@@ -17002,7 +17007,7 @@
         <v>422</v>
       </c>
       <c r="C415" s="76" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D415" s="22" t="s">
         <v>589</v>
@@ -17032,7 +17037,7 @@
         <v>423</v>
       </c>
       <c r="C416" s="76" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D416" s="22" t="s">
         <v>589</v>
@@ -17064,7 +17069,7 @@
         <v>424</v>
       </c>
       <c r="C417" s="76" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D417" s="22" t="s">
         <v>589</v>
@@ -17094,7 +17099,7 @@
         <v>426</v>
       </c>
       <c r="C418" s="76" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D418" s="22" t="s">
         <v>589</v>
@@ -17156,7 +17161,7 @@
         <v>429</v>
       </c>
       <c r="C420" s="76" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D420" s="22" t="s">
         <v>589</v>
@@ -17186,7 +17191,7 @@
         <v>430</v>
       </c>
       <c r="C421" s="76" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D421" s="22" t="s">
         <v>589</v>
@@ -17216,7 +17221,7 @@
         <v>431</v>
       </c>
       <c r="C422" s="76" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D422" s="22" t="s">
         <v>589</v>
@@ -17246,7 +17251,7 @@
         <v>432</v>
       </c>
       <c r="C423" s="76" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D423" s="22" t="s">
         <v>589</v>
@@ -17276,7 +17281,7 @@
         <v>433</v>
       </c>
       <c r="C424" s="28" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D424" s="22" t="s">
         <v>589</v>
@@ -17306,7 +17311,7 @@
         <v>434</v>
       </c>
       <c r="C425" s="76" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D425" s="22" t="s">
         <v>589</v>
@@ -17336,7 +17341,7 @@
         <v>435</v>
       </c>
       <c r="C426" s="76" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D426" s="22" t="s">
         <v>589</v>
@@ -17366,7 +17371,7 @@
         <v>436</v>
       </c>
       <c r="C427" s="76" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D427" s="22" t="s">
         <v>589</v>
@@ -17396,7 +17401,7 @@
         <v>437</v>
       </c>
       <c r="C428" s="76" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D428" s="22" t="s">
         <v>589</v>
@@ -17426,7 +17431,7 @@
         <v>439</v>
       </c>
       <c r="C429" s="76" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D429" s="22" t="s">
         <v>589</v>
@@ -17456,7 +17461,7 @@
         <v>440</v>
       </c>
       <c r="C430" s="76" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D430" s="22" t="s">
         <v>589</v>
@@ -17546,7 +17551,7 @@
         <v>443</v>
       </c>
       <c r="C433" s="76" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D433" s="22" t="s">
         <v>589</v>
@@ -17576,7 +17581,7 @@
         <v>444</v>
       </c>
       <c r="C434" s="76" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D434" s="22" t="s">
         <v>589</v>
@@ -17876,7 +17881,7 @@
         <v>454</v>
       </c>
       <c r="C444" s="77" t="s">
-        <v>611</v>
+        <v>956</v>
       </c>
       <c r="D444" s="53" t="s">
         <v>591</v>
@@ -17908,7 +17913,7 @@
         <v>455</v>
       </c>
       <c r="C445" s="77" t="s">
-        <v>611</v>
+        <v>956</v>
       </c>
       <c r="D445" s="53" t="s">
         <v>591</v>
@@ -17940,7 +17945,7 @@
         <v>456</v>
       </c>
       <c r="C446" s="77" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D446" s="53" t="s">
         <v>591</v>
@@ -17972,7 +17977,7 @@
         <v>457</v>
       </c>
       <c r="C447" s="76" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D447" s="22" t="s">
         <v>591</v>
@@ -18004,7 +18009,7 @@
         <v>458</v>
       </c>
       <c r="C448" s="76" t="s">
-        <v>642</v>
+        <v>957</v>
       </c>
       <c r="D448" s="22" t="s">
         <v>591</v>
@@ -18025,7 +18030,7 @@
         <v>567</v>
       </c>
       <c r="J448" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="449" spans="1:10">
@@ -18036,7 +18041,7 @@
         <v>459</v>
       </c>
       <c r="C449" s="76" t="s">
-        <v>642</v>
+        <v>957</v>
       </c>
       <c r="D449" s="22" t="s">
         <v>591</v>
@@ -18057,7 +18062,7 @@
         <v>567</v>
       </c>
       <c r="J449" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="450" spans="1:10">
@@ -18068,7 +18073,7 @@
         <v>460</v>
       </c>
       <c r="C450" s="76" t="s">
-        <v>642</v>
+        <v>957</v>
       </c>
       <c r="D450" s="22" t="s">
         <v>591</v>
@@ -18089,7 +18094,7 @@
         <v>567</v>
       </c>
       <c r="J450" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="451" spans="1:10">
@@ -18100,7 +18105,7 @@
         <v>461</v>
       </c>
       <c r="C451" s="76" t="s">
-        <v>642</v>
+        <v>957</v>
       </c>
       <c r="D451" s="22" t="s">
         <v>591</v>
@@ -18121,7 +18126,7 @@
         <v>567</v>
       </c>
       <c r="J451" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="452" spans="1:10">
@@ -18132,7 +18137,7 @@
         <v>462</v>
       </c>
       <c r="C452" s="76" t="s">
-        <v>642</v>
+        <v>957</v>
       </c>
       <c r="D452" s="22" t="s">
         <v>591</v>
@@ -18153,7 +18158,7 @@
         <v>567</v>
       </c>
       <c r="J452" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="453" spans="1:10">
@@ -18164,7 +18169,7 @@
         <v>463</v>
       </c>
       <c r="C453" s="76" t="s">
-        <v>642</v>
+        <v>957</v>
       </c>
       <c r="D453" s="22" t="s">
         <v>591</v>
@@ -18185,7 +18190,7 @@
         <v>567</v>
       </c>
       <c r="J453" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="454" spans="1:10">
@@ -18196,7 +18201,7 @@
         <v>464</v>
       </c>
       <c r="C454" s="76" t="s">
-        <v>642</v>
+        <v>957</v>
       </c>
       <c r="D454" s="22" t="s">
         <v>591</v>
@@ -18217,7 +18222,7 @@
         <v>567</v>
       </c>
       <c r="J454" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="455" spans="1:10">
@@ -18228,7 +18233,7 @@
         <v>465</v>
       </c>
       <c r="C455" s="76" t="s">
-        <v>642</v>
+        <v>957</v>
       </c>
       <c r="D455" s="22" t="s">
         <v>591</v>
@@ -18249,7 +18254,7 @@
         <v>567</v>
       </c>
       <c r="J455" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="456" spans="1:10">
@@ -18260,7 +18265,7 @@
         <v>466</v>
       </c>
       <c r="C456" s="76" t="s">
-        <v>642</v>
+        <v>957</v>
       </c>
       <c r="D456" s="22" t="s">
         <v>591</v>
@@ -18281,7 +18286,7 @@
         <v>567</v>
       </c>
       <c r="J456" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="457" spans="1:10">
@@ -18292,7 +18297,7 @@
         <v>467</v>
       </c>
       <c r="C457" s="76" t="s">
-        <v>642</v>
+        <v>957</v>
       </c>
       <c r="D457" s="22" t="s">
         <v>591</v>
@@ -18313,7 +18318,7 @@
         <v>567</v>
       </c>
       <c r="J457" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="458" spans="1:10">
@@ -18324,7 +18329,7 @@
         <v>468</v>
       </c>
       <c r="C458" s="76" t="s">
-        <v>642</v>
+        <v>957</v>
       </c>
       <c r="D458" s="22" t="s">
         <v>591</v>
@@ -18345,7 +18350,7 @@
         <v>567</v>
       </c>
       <c r="J458" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="459" spans="1:10">
@@ -18356,7 +18361,7 @@
         <v>469</v>
       </c>
       <c r="C459" s="76" t="s">
-        <v>642</v>
+        <v>957</v>
       </c>
       <c r="D459" s="22" t="s">
         <v>591</v>
@@ -18377,7 +18382,7 @@
         <v>567</v>
       </c>
       <c r="J459" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="460" spans="1:10">
@@ -18388,7 +18393,7 @@
         <v>470</v>
       </c>
       <c r="C460" s="76" t="s">
-        <v>642</v>
+        <v>957</v>
       </c>
       <c r="D460" s="22" t="s">
         <v>591</v>
@@ -18409,7 +18414,7 @@
         <v>567</v>
       </c>
       <c r="J460" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="461" spans="1:10">
@@ -18420,7 +18425,7 @@
         <v>471</v>
       </c>
       <c r="C461" s="76" t="s">
-        <v>642</v>
+        <v>957</v>
       </c>
       <c r="D461" s="22" t="s">
         <v>591</v>
@@ -18441,7 +18446,7 @@
         <v>567</v>
       </c>
       <c r="J461" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="462" spans="1:10">
@@ -18452,7 +18457,7 @@
         <v>472</v>
       </c>
       <c r="C462" s="76" t="s">
-        <v>642</v>
+        <v>957</v>
       </c>
       <c r="D462" s="22" t="s">
         <v>591</v>
@@ -18473,7 +18478,7 @@
         <v>567</v>
       </c>
       <c r="J462" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="463" spans="1:10">
@@ -18484,7 +18489,7 @@
         <v>473</v>
       </c>
       <c r="C463" s="76" t="s">
-        <v>641</v>
+        <v>958</v>
       </c>
       <c r="D463" s="22" t="s">
         <v>591</v>
@@ -18505,7 +18510,7 @@
         <v>567</v>
       </c>
       <c r="J463" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="464" spans="1:10">
@@ -18516,7 +18521,7 @@
         <v>474</v>
       </c>
       <c r="C464" s="76" t="s">
-        <v>641</v>
+        <v>958</v>
       </c>
       <c r="D464" s="22" t="s">
         <v>591</v>
@@ -18537,7 +18542,7 @@
         <v>567</v>
       </c>
       <c r="J464" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="465" spans="1:10">
@@ -18548,7 +18553,7 @@
         <v>475</v>
       </c>
       <c r="C465" s="76" t="s">
-        <v>641</v>
+        <v>958</v>
       </c>
       <c r="D465" s="22" t="s">
         <v>591</v>
@@ -18569,7 +18574,7 @@
         <v>567</v>
       </c>
       <c r="J465" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="466" spans="1:10">
@@ -18580,7 +18585,7 @@
         <v>477</v>
       </c>
       <c r="C466" s="76" t="s">
-        <v>641</v>
+        <v>958</v>
       </c>
       <c r="D466" s="22" t="s">
         <v>591</v>
@@ -18601,7 +18606,7 @@
         <v>567</v>
       </c>
       <c r="J466" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="467" spans="1:10">
@@ -18612,7 +18617,7 @@
         <v>478</v>
       </c>
       <c r="C467" s="76" t="s">
-        <v>641</v>
+        <v>958</v>
       </c>
       <c r="D467" s="22" t="s">
         <v>591</v>
@@ -18633,7 +18638,7 @@
         <v>567</v>
       </c>
       <c r="J467" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="468" spans="1:10">
@@ -18644,7 +18649,7 @@
         <v>479</v>
       </c>
       <c r="C468" s="76" t="s">
-        <v>641</v>
+        <v>958</v>
       </c>
       <c r="D468" s="22" t="s">
         <v>591</v>
@@ -18665,7 +18670,7 @@
         <v>567</v>
       </c>
       <c r="J468" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="469" spans="1:10">
@@ -18675,8 +18680,8 @@
       <c r="B469" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="C469" s="94" t="s">
-        <v>641</v>
+      <c r="C469" s="76" t="s">
+        <v>958</v>
       </c>
       <c r="D469" s="22" t="s">
         <v>591</v>
@@ -18697,7 +18702,7 @@
         <v>567</v>
       </c>
       <c r="J469" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="470" spans="1:10">
@@ -18707,8 +18712,8 @@
       <c r="B470" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="C470" s="94" t="s">
-        <v>641</v>
+      <c r="C470" s="76" t="s">
+        <v>958</v>
       </c>
       <c r="D470" s="22" t="s">
         <v>591</v>
@@ -18729,7 +18734,7 @@
         <v>567</v>
       </c>
       <c r="J470" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="471" spans="1:10">
@@ -18740,7 +18745,7 @@
         <v>482</v>
       </c>
       <c r="C471" s="76" t="s">
-        <v>641</v>
+        <v>958</v>
       </c>
       <c r="D471" s="22" t="s">
         <v>591</v>
@@ -18761,7 +18766,7 @@
         <v>567</v>
       </c>
       <c r="J471" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="472" spans="1:10">
@@ -18772,7 +18777,7 @@
         <v>483</v>
       </c>
       <c r="C472" s="76" t="s">
-        <v>641</v>
+        <v>958</v>
       </c>
       <c r="D472" s="22" t="s">
         <v>591</v>
@@ -18793,7 +18798,7 @@
         <v>567</v>
       </c>
       <c r="J472" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="473" spans="1:10">
@@ -18804,7 +18809,7 @@
         <v>485</v>
       </c>
       <c r="C473" s="76" t="s">
-        <v>641</v>
+        <v>958</v>
       </c>
       <c r="D473" s="22" t="s">
         <v>591</v>
@@ -18825,7 +18830,7 @@
         <v>567</v>
       </c>
       <c r="J473" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="474" spans="1:10">
@@ -18836,7 +18841,7 @@
         <v>486</v>
       </c>
       <c r="C474" s="76" t="s">
-        <v>641</v>
+        <v>958</v>
       </c>
       <c r="D474" s="22" t="s">
         <v>591</v>
@@ -18857,7 +18862,7 @@
         <v>567</v>
       </c>
       <c r="J474" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="475" spans="1:10">
@@ -18868,7 +18873,7 @@
         <v>487</v>
       </c>
       <c r="C475" s="76" t="s">
-        <v>641</v>
+        <v>958</v>
       </c>
       <c r="D475" s="22" t="s">
         <v>591</v>
@@ -18889,7 +18894,7 @@
         <v>567</v>
       </c>
       <c r="J475" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="476" spans="1:10">
@@ -18899,8 +18904,8 @@
       <c r="B476" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="C476" s="94" t="s">
-        <v>641</v>
+      <c r="C476" s="76" t="s">
+        <v>958</v>
       </c>
       <c r="D476" s="22" t="s">
         <v>591</v>
@@ -18921,7 +18926,7 @@
         <v>567</v>
       </c>
       <c r="J476" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="477" spans="1:10">
@@ -18931,8 +18936,8 @@
       <c r="B477" s="13" t="s">
         <v>489</v>
       </c>
-      <c r="C477" s="94" t="s">
-        <v>641</v>
+      <c r="C477" s="76" t="s">
+        <v>958</v>
       </c>
       <c r="D477" s="22" t="s">
         <v>591</v>
@@ -18953,7 +18958,7 @@
         <v>567</v>
       </c>
       <c r="J477" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="478" spans="1:10">
@@ -18963,8 +18968,8 @@
       <c r="B478" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="C478" s="94" t="s">
-        <v>641</v>
+      <c r="C478" s="76" t="s">
+        <v>958</v>
       </c>
       <c r="D478" s="22" t="s">
         <v>591</v>
@@ -18985,7 +18990,7 @@
         <v>567</v>
       </c>
       <c r="J478" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="479" spans="1:10">
@@ -18995,8 +19000,8 @@
       <c r="B479" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="C479" s="94" t="s">
-        <v>641</v>
+      <c r="C479" s="76" t="s">
+        <v>958</v>
       </c>
       <c r="D479" s="22" t="s">
         <v>591</v>
@@ -19017,7 +19022,7 @@
         <v>567</v>
       </c>
       <c r="J479" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="480" spans="1:10">
@@ -19027,8 +19032,8 @@
       <c r="B480" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="C480" s="94" t="s">
-        <v>641</v>
+      <c r="C480" s="76" t="s">
+        <v>958</v>
       </c>
       <c r="D480" s="22" t="s">
         <v>591</v>
@@ -19049,7 +19054,7 @@
         <v>567</v>
       </c>
       <c r="J480" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="481" spans="1:10">
@@ -19059,8 +19064,8 @@
       <c r="B481" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="C481" s="94" t="s">
-        <v>641</v>
+      <c r="C481" s="76" t="s">
+        <v>958</v>
       </c>
       <c r="D481" s="22" t="s">
         <v>591</v>
@@ -19081,7 +19086,7 @@
         <v>567</v>
       </c>
       <c r="J481" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="482" spans="1:10">
@@ -19091,8 +19096,8 @@
       <c r="B482" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="C482" s="94" t="s">
-        <v>641</v>
+      <c r="C482" s="76" t="s">
+        <v>958</v>
       </c>
       <c r="D482" s="22" t="s">
         <v>591</v>
@@ -19113,7 +19118,7 @@
         <v>567</v>
       </c>
       <c r="J482" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="483" spans="1:10">
@@ -19123,8 +19128,8 @@
       <c r="B483" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="C483" s="94" t="s">
-        <v>641</v>
+      <c r="C483" s="76" t="s">
+        <v>958</v>
       </c>
       <c r="D483" s="22" t="s">
         <v>591</v>
@@ -19145,7 +19150,7 @@
         <v>567</v>
       </c>
       <c r="J483" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="484" spans="1:10">
@@ -19155,8 +19160,8 @@
       <c r="B484" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="C484" s="94" t="s">
-        <v>641</v>
+      <c r="C484" s="76" t="s">
+        <v>958</v>
       </c>
       <c r="D484" s="22" t="s">
         <v>591</v>
@@ -19177,7 +19182,7 @@
         <v>567</v>
       </c>
       <c r="J484" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="485" spans="1:10">
@@ -19187,8 +19192,8 @@
       <c r="B485" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="C485" s="94" t="s">
-        <v>641</v>
+      <c r="C485" s="76" t="s">
+        <v>958</v>
       </c>
       <c r="D485" s="22" t="s">
         <v>591</v>
@@ -19209,7 +19214,7 @@
         <v>567</v>
       </c>
       <c r="J485" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="486" spans="1:10">
@@ -19219,8 +19224,8 @@
       <c r="B486" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="C486" s="94" t="s">
-        <v>641</v>
+      <c r="C486" s="76" t="s">
+        <v>958</v>
       </c>
       <c r="D486" s="22" t="s">
         <v>591</v>
@@ -19241,7 +19246,7 @@
         <v>567</v>
       </c>
       <c r="J486" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="487" spans="1:10">
@@ -19251,8 +19256,8 @@
       <c r="B487" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="C487" s="94" t="s">
-        <v>641</v>
+      <c r="C487" s="76" t="s">
+        <v>958</v>
       </c>
       <c r="D487" s="22" t="s">
         <v>591</v>
@@ -19273,7 +19278,7 @@
         <v>567</v>
       </c>
       <c r="J487" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="488" spans="1:10">
@@ -19283,8 +19288,8 @@
       <c r="B488" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="C488" s="94" t="s">
-        <v>641</v>
+      <c r="C488" s="76" t="s">
+        <v>958</v>
       </c>
       <c r="D488" s="22" t="s">
         <v>591</v>
@@ -19305,7 +19310,7 @@
         <v>567</v>
       </c>
       <c r="J488" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="489" spans="1:10">
@@ -19315,8 +19320,8 @@
       <c r="B489" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="C489" s="94" t="s">
-        <v>641</v>
+      <c r="C489" s="76" t="s">
+        <v>958</v>
       </c>
       <c r="D489" s="22" t="s">
         <v>591</v>
@@ -19337,7 +19342,7 @@
         <v>567</v>
       </c>
       <c r="J489" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="490" spans="1:10">
@@ -19347,8 +19352,8 @@
       <c r="B490" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C490" s="94" t="s">
-        <v>641</v>
+      <c r="C490" s="76" t="s">
+        <v>958</v>
       </c>
       <c r="D490" s="22" t="s">
         <v>591</v>
@@ -19369,7 +19374,7 @@
         <v>567</v>
       </c>
       <c r="J490" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="491" spans="1:10">
@@ -19379,8 +19384,8 @@
       <c r="B491" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="C491" s="94" t="s">
-        <v>641</v>
+      <c r="C491" s="76" t="s">
+        <v>958</v>
       </c>
       <c r="D491" s="22" t="s">
         <v>591</v>
@@ -19401,7 +19406,7 @@
         <v>567</v>
       </c>
       <c r="J491" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="492" spans="1:10">
@@ -19412,7 +19417,7 @@
         <v>503</v>
       </c>
       <c r="C492" s="94" t="s">
-        <v>611</v>
+        <v>956</v>
       </c>
       <c r="D492" s="22" t="s">
         <v>591</v>
@@ -19444,7 +19449,7 @@
         <v>504</v>
       </c>
       <c r="C493" s="94" t="s">
-        <v>641</v>
+        <v>958</v>
       </c>
       <c r="D493" s="22" t="s">
         <v>591</v>
@@ -19465,7 +19470,7 @@
         <v>567</v>
       </c>
       <c r="J493" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="494" spans="1:10">
@@ -19476,7 +19481,7 @@
         <v>5</v>
       </c>
       <c r="C494" s="94" t="s">
-        <v>641</v>
+        <v>958</v>
       </c>
       <c r="D494" s="22" t="s">
         <v>591</v>
@@ -19497,7 +19502,7 @@
         <v>567</v>
       </c>
       <c r="J494" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="495" spans="1:10">
@@ -19508,7 +19513,7 @@
         <v>506</v>
       </c>
       <c r="C495" s="94" t="s">
-        <v>611</v>
+        <v>956</v>
       </c>
       <c r="D495" s="22" t="s">
         <v>591</v>
@@ -19540,7 +19545,7 @@
         <v>507</v>
       </c>
       <c r="C496" s="94" t="s">
-        <v>611</v>
+        <v>956</v>
       </c>
       <c r="D496" s="22" t="s">
         <v>591</v>
@@ -19571,8 +19576,8 @@
       <c r="B497" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="C497" s="28" t="s">
-        <v>611</v>
+      <c r="C497" s="94" t="s">
+        <v>956</v>
       </c>
       <c r="D497" s="22" t="s">
         <v>591</v>
@@ -19604,7 +19609,7 @@
         <v>509</v>
       </c>
       <c r="C498" s="94" t="s">
-        <v>641</v>
+        <v>958</v>
       </c>
       <c r="D498" s="22" t="s">
         <v>591</v>
@@ -19625,7 +19630,7 @@
         <v>567</v>
       </c>
       <c r="J498" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="499" spans="1:10">
@@ -19636,7 +19641,7 @@
         <v>6</v>
       </c>
       <c r="C499" s="94" t="s">
-        <v>641</v>
+        <v>958</v>
       </c>
       <c r="D499" s="22" t="s">
         <v>591</v>
@@ -19657,7 +19662,7 @@
         <v>567</v>
       </c>
       <c r="J499" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="500" spans="1:10">
@@ -19668,7 +19673,7 @@
         <v>510</v>
       </c>
       <c r="C500" s="94" t="s">
-        <v>641</v>
+        <v>958</v>
       </c>
       <c r="D500" s="22" t="s">
         <v>591</v>
@@ -19689,7 +19694,7 @@
         <v>567</v>
       </c>
       <c r="J500" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="501" spans="1:10">
@@ -19700,7 +19705,7 @@
         <v>7</v>
       </c>
       <c r="C501" s="94" t="s">
-        <v>641</v>
+        <v>958</v>
       </c>
       <c r="D501" s="22" t="s">
         <v>591</v>
@@ -19721,7 +19726,7 @@
         <v>567</v>
       </c>
       <c r="J501" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="502" spans="1:10">
@@ -19732,7 +19737,7 @@
         <v>511</v>
       </c>
       <c r="C502" s="94" t="s">
-        <v>641</v>
+        <v>958</v>
       </c>
       <c r="D502" s="22" t="s">
         <v>591</v>
@@ -19753,7 +19758,7 @@
         <v>567</v>
       </c>
       <c r="J502" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="504" spans="1:10">
@@ -20051,7 +20056,8 @@
       <c r="B591" s="24"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J502">
+  <autoFilter ref="A1:J502"/>
+  <sortState ref="A2:J502">
     <sortCondition ref="B77:B502"/>
   </sortState>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -20085,34 +20091,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C7AEB2-4499-0F4F-B06E-516F6B116812}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U239"/>
   <sheetViews>
     <sheetView topLeftCell="A96" workbookViewId="0">
       <selection activeCell="B104" sqref="B104:B110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1">
       <c r="A1" s="38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D1" s="39" t="s">
         <v>576</v>
@@ -20136,15 +20142,15 @@
         <v>582</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="17">
+    <row r="2" spans="1:21">
       <c r="A2" s="78" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D2" s="81" t="s">
         <v>61</v>
@@ -20153,22 +20159,22 @@
         <v>2005</v>
       </c>
       <c r="F2" s="80" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G2" s="83"/>
       <c r="H2" s="83"/>
       <c r="I2" s="83"/>
       <c r="J2" s="83"/>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" ht="17">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="78" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D3" s="81" t="s">
         <v>61</v>
@@ -20177,22 +20183,22 @@
         <v>2005</v>
       </c>
       <c r="F3" s="80" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G3" s="83"/>
       <c r="H3" s="83"/>
       <c r="I3" s="83"/>
       <c r="J3" s="83"/>
     </row>
-    <row r="4" spans="1:21" ht="17">
+    <row r="4" spans="1:21">
       <c r="A4" s="78" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D4" s="81" t="s">
         <v>61</v>
@@ -20201,22 +20207,22 @@
         <v>2005</v>
       </c>
       <c r="F4" s="80" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G4" s="83"/>
       <c r="H4" s="83"/>
       <c r="I4" s="83"/>
       <c r="J4" s="83"/>
     </row>
-    <row r="5" spans="1:21" ht="17">
+    <row r="5" spans="1:21">
       <c r="A5" s="78" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B5" s="79" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D5" s="81" t="s">
         <v>61</v>
@@ -20225,22 +20231,22 @@
         <v>2005</v>
       </c>
       <c r="F5" s="82" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="G5" s="83"/>
       <c r="H5" s="83"/>
       <c r="I5" s="83"/>
       <c r="J5" s="83"/>
     </row>
-    <row r="6" spans="1:21" ht="17">
+    <row r="6" spans="1:21">
       <c r="A6" s="78" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B6" s="84" t="s">
         <v>125</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D6" s="81" t="s">
         <v>61</v>
@@ -20249,22 +20255,22 @@
         <v>2005</v>
       </c>
       <c r="F6" s="82" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="G6" s="83"/>
       <c r="H6" s="83"/>
       <c r="I6" s="83"/>
       <c r="J6" s="83"/>
     </row>
-    <row r="7" spans="1:21" ht="17">
+    <row r="7" spans="1:21">
       <c r="A7" s="78" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D7" s="81" t="s">
         <v>61</v>
@@ -20273,22 +20279,22 @@
         <v>2005</v>
       </c>
       <c r="F7" s="80" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G7" s="83"/>
       <c r="H7" s="83"/>
       <c r="I7" s="83"/>
       <c r="J7" s="83"/>
     </row>
-    <row r="8" spans="1:21" ht="17">
+    <row r="8" spans="1:21">
       <c r="A8" s="78" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C8" s="81" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D8" s="81" t="s">
         <v>61</v>
@@ -20297,22 +20303,22 @@
         <v>2005</v>
       </c>
       <c r="F8" s="80" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G8" s="83"/>
       <c r="H8" s="83"/>
       <c r="I8" s="83"/>
       <c r="J8" s="83"/>
     </row>
-    <row r="9" spans="1:21" ht="17">
+    <row r="9" spans="1:21">
       <c r="A9" s="78" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C9" s="81" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D9" s="81" t="s">
         <v>61</v>
@@ -20321,22 +20327,22 @@
         <v>2005</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G9" s="83"/>
       <c r="H9" s="83"/>
       <c r="I9" s="83"/>
       <c r="J9" s="83"/>
     </row>
-    <row r="10" spans="1:21" ht="17">
+    <row r="10" spans="1:21">
       <c r="A10" s="78" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C10" s="81" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D10" s="81" t="s">
         <v>61</v>
@@ -20345,7 +20351,7 @@
         <v>2005</v>
       </c>
       <c r="F10" s="80" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G10" s="83"/>
       <c r="H10" s="83"/>
@@ -20354,13 +20360,13 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="78" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B11" s="88" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D11" s="81" t="s">
         <v>529</v>
@@ -20369,7 +20375,7 @@
         <v>2015</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G11" s="83"/>
       <c r="H11" s="83"/>
@@ -20381,10 +20387,10 @@
         <v>86</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -20395,19 +20401,19 @@
         <v>2015</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:21" s="6" customFormat="1">
       <c r="A13" s="78" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B13" s="81" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C13" s="81" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D13" s="81" t="s">
         <v>529</v>
@@ -20416,7 +20422,7 @@
         <v>2015</v>
       </c>
       <c r="F13" s="80" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G13" s="83"/>
       <c r="H13" s="83"/>
@@ -20855,13 +20861,13 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="78" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B30" s="81" t="s">
         <v>263</v>
       </c>
       <c r="C30" s="80" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D30" s="81" t="s">
         <v>64</v>
@@ -20870,7 +20876,7 @@
         <v>2002</v>
       </c>
       <c r="F30" s="80" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="G30" s="83"/>
       <c r="H30" s="83"/>
@@ -20903,10 +20909,10 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="78" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B32" s="81" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C32" s="89" t="s">
         <v>538</v>
@@ -20918,7 +20924,7 @@
         <v>2003</v>
       </c>
       <c r="F32" s="80" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G32" s="83"/>
       <c r="H32" s="83"/>
@@ -21038,13 +21044,13 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="78" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B38" s="81" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C38" s="89" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D38" s="81" t="s">
         <v>60</v>
@@ -21053,7 +21059,7 @@
         <v>2003</v>
       </c>
       <c r="F38" s="80" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G38" s="83"/>
       <c r="H38" s="83"/>
@@ -21104,7 +21110,7 @@
         <v>567</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>591</v>
@@ -21142,7 +21148,7 @@
         <v>567</v>
       </c>
       <c r="J41" s="91" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -21174,7 +21180,7 @@
         <v>567</v>
       </c>
       <c r="J42" s="91" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -21374,7 +21380,7 @@
         <v>78</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>60</v>
@@ -21395,7 +21401,7 @@
         <v>79</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>60</v>
@@ -21416,7 +21422,7 @@
         <v>303</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>60</v>
@@ -21439,7 +21445,7 @@
         <v>304</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>60</v>
@@ -21523,7 +21529,7 @@
         <v>307</v>
       </c>
       <c r="C59" s="80" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D59" s="81" t="s">
         <v>60</v>
@@ -21532,7 +21538,7 @@
         <v>2015</v>
       </c>
       <c r="F59" s="80" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="H59" s="3"/>
     </row>
@@ -21622,7 +21628,7 @@
         <v>567</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I63" s="13" t="s">
         <v>580</v>
@@ -21639,7 +21645,7 @@
         <v>312</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>60</v>
@@ -21660,7 +21666,7 @@
         <v>322</v>
       </c>
       <c r="C65" s="92" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D65" s="91" t="s">
         <v>589</v>
@@ -21681,7 +21687,7 @@
         <v>567</v>
       </c>
       <c r="J65" s="91" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -21692,7 +21698,7 @@
         <v>45</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>60</v>
@@ -21707,13 +21713,13 @@
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="78" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B67" s="81" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C67" s="89" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D67" s="81" t="s">
         <v>60</v>
@@ -21722,7 +21728,7 @@
         <v>2020</v>
       </c>
       <c r="F67" s="80" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G67" s="83"/>
       <c r="H67" s="83"/>
@@ -21731,13 +21737,13 @@
     </row>
     <row r="68" spans="1:21">
       <c r="A68" s="78" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B68" s="78" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C68" s="81" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D68" s="81" t="s">
         <v>60</v>
@@ -21746,7 +21752,7 @@
         <v>2021</v>
       </c>
       <c r="F68" s="80" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G68" s="83"/>
       <c r="H68" s="83"/>
@@ -21755,13 +21761,13 @@
     </row>
     <row r="69" spans="1:21">
       <c r="A69" s="78" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B69" s="78" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C69" s="81" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D69" s="81" t="s">
         <v>59</v>
@@ -21770,7 +21776,7 @@
         <v>2001</v>
       </c>
       <c r="F69" s="80" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G69" s="83"/>
       <c r="H69" s="83"/>
@@ -21785,10 +21791,10 @@
         <v>337</v>
       </c>
       <c r="C70" s="92" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D70" s="91" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E70" s="91" t="s">
         <v>592</v>
@@ -21806,18 +21812,18 @@
         <v>572</v>
       </c>
       <c r="J70" s="91" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="71" spans="1:21">
       <c r="A71" s="78" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B71" s="81" t="s">
         <v>39</v>
       </c>
       <c r="C71" s="86" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D71" s="81" t="s">
         <v>59</v>
@@ -21826,7 +21832,7 @@
         <v>2005</v>
       </c>
       <c r="F71" s="80" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="G71" s="83"/>
       <c r="H71" s="83"/>
@@ -21844,7 +21850,7 @@
         <v>546</v>
       </c>
       <c r="D72" s="91" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E72" s="91" t="s">
         <v>592</v>
@@ -21859,10 +21865,10 @@
         <v>44024</v>
       </c>
       <c r="I72" s="91" t="s">
+        <v>631</v>
+      </c>
+      <c r="J72" s="91" t="s">
         <v>632</v>
-      </c>
-      <c r="J72" s="91" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -21909,10 +21915,10 @@
     </row>
     <row r="75" spans="1:21">
       <c r="A75" s="78" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B75" s="81" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C75" s="86" t="s">
         <v>546</v>
@@ -21924,7 +21930,7 @@
         <v>2005</v>
       </c>
       <c r="F75" s="80" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G75" s="83"/>
       <c r="H75" s="83"/>
@@ -21975,13 +21981,13 @@
     </row>
     <row r="78" spans="1:21">
       <c r="A78" s="78" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B78" s="81" t="s">
         <v>352</v>
       </c>
       <c r="C78" s="86" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D78" s="81" t="s">
         <v>59</v>
@@ -21990,7 +21996,7 @@
         <v>2017</v>
       </c>
       <c r="F78" s="80" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="G78" s="83"/>
       <c r="H78" s="83"/>
@@ -22079,13 +22085,13 @@
     </row>
     <row r="82" spans="1:21" s="83" customFormat="1">
       <c r="A82" s="78" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B82" s="81" t="s">
         <v>356</v>
       </c>
       <c r="C82" s="86" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D82" s="81" t="s">
         <v>59</v>
@@ -22094,7 +22100,7 @@
         <v>2017</v>
       </c>
       <c r="F82" s="80" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="G82"/>
       <c r="H82" s="3"/>
@@ -22186,10 +22192,10 @@
     </row>
     <row r="86" spans="1:21" s="83" customFormat="1">
       <c r="A86" s="78" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B86" s="78" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C86" s="87" t="s">
         <v>546</v>
@@ -22201,7 +22207,7 @@
         <v>2021</v>
       </c>
       <c r="F86" s="80" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="87" spans="1:21" s="83" customFormat="1">
@@ -22572,7 +22578,7 @@
         <v>428</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D102" s="13" t="s">
         <v>57</v>
@@ -23732,7 +23738,7 @@
       <c r="F239" s="18"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U239">
+  <sortState ref="A2:U239">
     <sortCondition ref="B59:B239"/>
   </sortState>
   <conditionalFormatting sqref="B1">
@@ -23885,23 +23891,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD4B9DE-A9E9-F441-8423-7560BE302B23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.625" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23950,7 +23956,7 @@
         <v>569</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -23978,7 +23984,7 @@
         <v>569</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -24006,7 +24012,7 @@
         <v>569</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="24" customFormat="1">
@@ -24034,7 +24040,7 @@
         <v>567</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="24" customFormat="1">
@@ -24062,7 +24068,7 @@
         <v>569</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="24" customFormat="1">
@@ -24090,7 +24096,7 @@
         <v>569</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="24" customFormat="1">
@@ -24101,7 +24107,7 @@
         <v>519</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="35"/>
@@ -24118,7 +24124,7 @@
         <v>567</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="24" customFormat="1">
@@ -24129,7 +24135,7 @@
         <v>520</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
@@ -24146,7 +24152,7 @@
         <v>567</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="24" customFormat="1">
@@ -24178,7 +24184,7 @@
         <v>567</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="11" spans="1:10">
